--- a/data/data testing.xlsx
+++ b/data/data testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\skripsi\db sql lite scentplus\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\skripsi\Analisis Sentimen Scentplus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="299">
   <si>
     <t>Username</t>
   </si>
@@ -99,9 +99,6 @@
     <t>https://www.tiktok.com/@bangsaman_32</t>
   </si>
   <si>
-    <t>mahal banget harga nya</t>
-  </si>
-  <si>
     <t>daengmusji</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>https://www.tiktok.com/@hibernationnn</t>
   </si>
   <si>
-    <t>tiga sampai empat jam doang ini taha nnya. Extrait itu cuma gimmick. Masa side effect sama dominant lebih tahan lama side effect</t>
-  </si>
-  <si>
     <t>pesawat_kertas0</t>
   </si>
   <si>
@@ -213,707 +207,716 @@
     <t>saran buat motoran ka</t>
   </si>
   <si>
-    <t xml:space="preserve">Botol parfum nya keras di pencet
+    <t>beutikcilikvoices</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@beutikcilikvoices</t>
+  </si>
+  <si>
+    <t>dominant cocok ga ka buat outdor?</t>
+  </si>
+  <si>
+    <t>adityfch</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@adityfch</t>
+  </si>
+  <si>
+    <t>yah salah beli aku yang kerja di outdoor tapi malah beli side effect</t>
+  </si>
+  <si>
+    <t>dwiezt</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dwiezt</t>
+  </si>
+  <si>
+    <t>Parah admin nya mau nanya ga di jawab jawab</t>
+  </si>
+  <si>
+    <t>awanhamesa2823</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@awanhamesa2823</t>
+  </si>
+  <si>
+    <t>stok dominant yang tiga puluh lima mili selalu ga ada</t>
+  </si>
+  <si>
+    <t>rizkyp720</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rizkyp720</t>
+  </si>
+  <si>
+    <t>saran parfum buat anak sekolah yang cocok apa kak</t>
+  </si>
+  <si>
+    <t>palsu yang aku terima</t>
+  </si>
+  <si>
+    <t>trabasae</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@trabasae</t>
+  </si>
+  <si>
+    <t>rekomendasi yang buat cewe kalau di pakai siang hari buat sekolah tidak mual apa kak?</t>
+  </si>
+  <si>
+    <t>pecinta.mamahmuda</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@pecinta.mamahmuda</t>
+  </si>
+  <si>
+    <t>minta rekomendasi yang bau nya tidak mencolok dan tidak bikin mual, kak</t>
+  </si>
+  <si>
+    <t>user6921565658614</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user6921565658614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aku sudah beli wanggi nya biasa aja </t>
+  </si>
+  <si>
+    <t>indraaditama111</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@indraaditama111</t>
+  </si>
+  <si>
+    <t>emang sewangi itu dominant</t>
+  </si>
+  <si>
+    <t>hawk230891</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@hawk230891</t>
+  </si>
+  <si>
+    <t>varian scentplus yang cocok buat outdoor apa ka</t>
+  </si>
+  <si>
+    <t>raskamoonfietra_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@raskamoonfietra_</t>
+  </si>
+  <si>
+    <t>bubble nya kurang tebel jadi pecah botol nya</t>
+  </si>
+  <si>
+    <t>winwen23</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@winwen23</t>
+  </si>
+  <si>
+    <t>mahal banget mbak</t>
+  </si>
+  <si>
+    <t>danxdam</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@danxdam</t>
+  </si>
+  <si>
+    <t>wangi kalem yang mana ka</t>
+  </si>
+  <si>
+    <t>ayhie12</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ayhie12</t>
+  </si>
+  <si>
+    <t>tetap wangi DOMINANT yang jadi andala aku, kayak ada manis manis nya gitu</t>
+  </si>
+  <si>
+    <t>link.010</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@link.010</t>
+  </si>
+  <si>
+    <t>parfum scentplus yang cocok buat anak sekolah apa kak</t>
+  </si>
+  <si>
+    <t>mukliskecipungkup</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mukliskecipungkup</t>
+  </si>
+  <si>
+    <t>clarkkentpaat</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@clarkkentpaat</t>
+  </si>
+  <si>
+    <t>ga sampai satu jam wangi nya udah ilang</t>
+  </si>
+  <si>
+    <t>kaitam86</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kaitam86</t>
+  </si>
+  <si>
+    <t>saran aroma vanila buat anak sekolah kak</t>
+  </si>
+  <si>
+    <t>adiyatmanr</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@adiyatmanr</t>
+  </si>
+  <si>
+    <t>azwardi2</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@azwardi2</t>
+  </si>
+  <si>
+    <t>entahseiapakamu</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@entahseiapakamu</t>
+  </si>
+  <si>
+    <t>emang bener sih dominant ini bikin pasangan nyaman terus</t>
+  </si>
+  <si>
+    <t>bungtama10</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bungtama10</t>
+  </si>
+  <si>
+    <t>achongboombers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@achongboombers</t>
+  </si>
+  <si>
+    <t>dominant cocok buat sekolah gak kak</t>
+  </si>
+  <si>
+    <t>inoy_tt</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@inoy_tt</t>
+  </si>
+  <si>
+    <t>ham_adjza19</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ham_adjza19</t>
+  </si>
+  <si>
+    <t>saran yang wangi kaya abis mandi buat anak sekolah dong kak</t>
+  </si>
+  <si>
+    <t>fajarshodiqqq</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fajarshodiqqq</t>
+  </si>
+  <si>
+    <t>yang seratus mili berapa harga nya ka</t>
+  </si>
+  <si>
+    <t>arifcleaner7</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@arifcleaner7</t>
+  </si>
+  <si>
+    <t>yang pasti nya pakai dominant bikin pasangan makin nyaman aku udah buktiin</t>
+  </si>
+  <si>
+    <t>bhontot882</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bhontot882</t>
+  </si>
+  <si>
+    <t>uuwooeeyyy</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@uuwooeeyyy</t>
+  </si>
+  <si>
+    <t>beli di sini wangi nya gak enak kaya baygon</t>
+  </si>
+  <si>
+    <t>user30879131041876</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user30879131041876</t>
+  </si>
+  <si>
+    <t>rianariyanto23</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rianariyanto23</t>
+  </si>
+  <si>
+    <t>udah gak ke hitung udah beli berapa kali, tapi belum dapet bonusan nih dari admin</t>
+  </si>
+  <si>
+    <t>acong2405</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@acong2405</t>
+  </si>
+  <si>
+    <t>wangi nya emang enak banget sih</t>
+  </si>
+  <si>
+    <t>tania.phan</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@tania.phan</t>
+  </si>
+  <si>
+    <t>zakheusbnri25</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@zakheusbnri25</t>
+  </si>
+  <si>
+    <t>ermust10</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ermust10</t>
+  </si>
+  <si>
+    <t>user5957386993834</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user5957386993834</t>
+  </si>
+  <si>
+    <t>renoalfaqihh</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@renoalfaqihh</t>
+  </si>
+  <si>
+    <t>putra29932</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@putra29932</t>
+  </si>
+  <si>
+    <t>wangi nya gak tahan lama aku kecewa gak sesuai iklan</t>
+  </si>
+  <si>
+    <t>_.ryuukii._</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@_.ryuukii._</t>
+  </si>
+  <si>
+    <t>dominant effect paling bikin nyaman dan senang</t>
+  </si>
+  <si>
+    <t>indrajonedy</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@indrajonedy</t>
+  </si>
+  <si>
+    <t>aku pakai dua dua nya itu emang sewangi dan seenak itu</t>
+  </si>
+  <si>
+    <t>imam5717</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@imam5717</t>
+  </si>
+  <si>
+    <t>captain_rabbit8</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@captain_rabbit8</t>
+  </si>
+  <si>
+    <t>side the dominant bagus tuh nama nya</t>
+  </si>
+  <si>
+    <t>ghejho</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ghejho</t>
+  </si>
+  <si>
+    <t>rastamwww</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rastamwww</t>
+  </si>
+  <si>
+    <t>desisetyawan116</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@desisetyawan116</t>
+  </si>
+  <si>
+    <t>zaki_17xxxxx</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@zaki_17xxxxx</t>
+  </si>
+  <si>
+    <t>irwandhwis04</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@irwandhwis04</t>
+  </si>
+  <si>
+    <t>dilzzstay</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dilzzstay</t>
+  </si>
+  <si>
+    <t>kak kalo yang buat outdor lebih cocok yang mana</t>
+  </si>
+  <si>
+    <t>winata_54321</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@winata_54321</t>
+  </si>
+  <si>
+    <t>xiaoyanasli</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@xiaoyanasli</t>
+  </si>
+  <si>
+    <t>Buset ini Admin Scentplus Aktif Banget Bales komen emang cocok jadi parfum lokal nomer 1</t>
+  </si>
+  <si>
+    <t>ostlegion</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ostlegion</t>
+  </si>
+  <si>
+    <t>mau nanya ka ini asli scentplus ga ka?</t>
+  </si>
+  <si>
+    <t>farezzzztuuu</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@farezzzztuuu</t>
+  </si>
+  <si>
+    <t>parah sudah lima hari menunggu kurir terus</t>
+  </si>
+  <si>
+    <t>dutaepik61</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dutaepik61</t>
+  </si>
+  <si>
+    <t>renufa</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@renufa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudah pesen dari satu minggu pesen belum datang </t>
+  </si>
+  <si>
+    <t>ikhsanbukanintapayong</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ikhsanbukanintapayong</t>
+  </si>
+  <si>
+    <t>baru saya beli ternyata palsu padahal satu itu lima puluh ribu</t>
+  </si>
+  <si>
+    <t>rynputra14</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rynputra14</t>
+  </si>
+  <si>
+    <t>luxzkyyy_ft_wannz</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@luxzkyyy_ft_wannz</t>
+  </si>
+  <si>
+    <t>aku beli side effect dapet yang palsu mulu gimana nih kak</t>
+  </si>
+  <si>
+    <t>retnowijaya.pras2</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@retnowijaya.pras2</t>
+  </si>
+  <si>
+    <t>ddwith_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ddwith_</t>
+  </si>
+  <si>
+    <t>buat kodangan apa ka</t>
+  </si>
+  <si>
+    <t>_21mikolassaputra</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@_21mikolassaputra</t>
+  </si>
+  <si>
+    <t>untuk pengiriman dari cirebon ke riau berapa lama ka</t>
+  </si>
+  <si>
+    <t>anakwayank92</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@anakwayank92</t>
+  </si>
+  <si>
+    <t>aer doang wangi nya tidak sampai tiga menit hilang</t>
+  </si>
+  <si>
+    <t>kh01ru1_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kh01ru1_</t>
+  </si>
+  <si>
+    <t>side effect wangi nya bikin kangen</t>
+  </si>
+  <si>
+    <t>viscountmoba</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@viscountmoba</t>
+  </si>
+  <si>
+    <t>abang_wahyudin</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@abang_wahyudin</t>
+  </si>
+  <si>
+    <t>inisiapa183</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@inisiapa183</t>
+  </si>
+  <si>
+    <t>Parfum murah pasti tidak tahan lama</t>
+  </si>
+  <si>
+    <t>rarieuttv</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rarieuttv</t>
+  </si>
+  <si>
+    <t>dodik2105</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dodik2105</t>
+  </si>
+  <si>
+    <t>dark.postman</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dark.postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heran sama yang ketipu  padahal tinggal beli di toko scantplus official </t>
+  </si>
+  <si>
+    <t>el_mnpo10</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@el_mnpo10</t>
+  </si>
+  <si>
+    <t>emang dari dulu aku suka sama nih Scentplus apalagi yang varian Side Effect wangi nya tidak mengecewakan emang parfum nomor 1</t>
+  </si>
+  <si>
+    <t>gw_cium_nih_bibirnya</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@gw_cium_nih_bibirnya</t>
+  </si>
+  <si>
+    <t>iklan pembohong yang bikin cewe nempel ke cowok itu bukan parfum, tapi duit dari harta warisan cowok</t>
+  </si>
+  <si>
+    <t>ahmadali_ibrahim16</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ahmadali_ibrahim16</t>
+  </si>
+  <si>
+    <t>tetap pemenang nya yang pro player dominant wangi nya lembut banget</t>
+  </si>
+  <si>
+    <t>anwr_yxy</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@anwr_yxy</t>
+  </si>
+  <si>
+    <t>tidak tahan lama</t>
+  </si>
+  <si>
+    <t>giantid</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@giantid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tidak lagi lagi beli tidak tau lagi mana yang asli dan mana yang palsu </t>
+  </si>
+  <si>
+    <t>kevinarisandi2</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kevinarisandi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aku pakai yang dominant emang bener wangi banget </t>
+  </si>
+  <si>
+    <t>dendasuryapurnama</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dendasuryapurnama</t>
+  </si>
+  <si>
+    <t>side effect sama dominant sudah coba emang top banget wangi nya</t>
+  </si>
+  <si>
+    <t>_netkidss</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@_netkidss</t>
+  </si>
+  <si>
+    <t>kak kalo beli langsung di tempat nya Cirebon bisa ga ka</t>
+  </si>
+  <si>
+    <t>ononihaa_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ononihaa_</t>
+  </si>
+  <si>
+    <t>toko apaan kaya gini ongkir lebih mahal dari pada harga parfum nya, aneh banget</t>
+  </si>
+  <si>
+    <t>mantap wangi nya scentplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saya suka banget wangi nya yang dominant </t>
+  </si>
+  <si>
+    <t>ketagihan banget sama aroma nya</t>
+  </si>
+  <si>
+    <t>dominant emang ga ada lawan wangi banget</t>
+  </si>
+  <si>
+    <t>mantap banget harum nya aku suka banget</t>
+  </si>
+  <si>
+    <t>dominant parfum terbaik aku</t>
+  </si>
+  <si>
+    <t>wangi parfum nya enak banget kak</t>
+  </si>
+  <si>
+    <t>pengemasan nya bagus dan aman banget</t>
+  </si>
+  <si>
+    <t>keren pengemasan nya</t>
+  </si>
+  <si>
+    <t>buat rapat apa ka</t>
+  </si>
+  <si>
+    <t>wangi aku suka dominant</t>
+  </si>
+  <si>
+    <t>mantap kak aku suka banget sama saran nya</t>
+  </si>
+  <si>
+    <t>wangi nya mantap banget aku suka</t>
+  </si>
+  <si>
+    <t>mau dominant yang botol nya paling keren</t>
+  </si>
+  <si>
+    <t>mantap aku suka wangi nya</t>
+  </si>
+  <si>
+    <t>saya mengakui aroma nya emang keren</t>
+  </si>
+  <si>
+    <t>saya nyesel beli parfum ini bau nya tidak enak</t>
+  </si>
+  <si>
+    <t>mantap harga sesuai Kualitas</t>
+  </si>
+  <si>
+    <t>cocok banget buat kasih kado ke suami</t>
+  </si>
+  <si>
+    <t>kotak nya keren banget</t>
+  </si>
+  <si>
+    <t>mau nanya ka parfum nya panas di leher ga ka</t>
+  </si>
+  <si>
+    <t>mau nanya ka parfum nya bisa buat sholat gak kak</t>
+  </si>
+  <si>
+    <t>Sangat lama sudah seminggu belum dikirim juga</t>
+  </si>
+  <si>
+    <t>Benar benar keterlaluan sudah seminggu dan masih belum dikirim</t>
+  </si>
+  <si>
+    <t>Harga nya sangat mahal sekali</t>
+  </si>
+  <si>
+    <t>pembohong extrait itu hanya trik pemasaran</t>
+  </si>
+  <si>
+    <t>Botol parfum nya sangat sulit di pencet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botol parfum nya begitu sulit untuk dipencet
 </t>
   </si>
   <si>
-    <t>beutikcilikvoices</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@beutikcilikvoices</t>
-  </si>
-  <si>
-    <t>dominant cocok ga ka buat outdor?</t>
-  </si>
-  <si>
-    <t>adityfch</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@adityfch</t>
-  </si>
-  <si>
-    <t>yah salah beli aku yang kerja di outdoor tapi malah beli side effect</t>
-  </si>
-  <si>
-    <t>dwiezt</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dwiezt</t>
-  </si>
-  <si>
-    <t>Parah admin nya mau nanya ga di jawab jawab</t>
-  </si>
-  <si>
-    <t>awanhamesa2823</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@awanhamesa2823</t>
-  </si>
-  <si>
-    <t>stok dominant yang tiga puluh lima mili selalu ga ada</t>
-  </si>
-  <si>
-    <t>rizkyp720</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@rizkyp720</t>
-  </si>
-  <si>
-    <t>saran parfum buat anak sekolah yang cocok apa kak</t>
-  </si>
-  <si>
-    <t>palsu yang aku terima</t>
-  </si>
-  <si>
-    <t>trabasae</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@trabasae</t>
-  </si>
-  <si>
-    <t>rekomendasi yang buat cewe kalau di pakai siang hari buat sekolah tidak mual apa kak?</t>
-  </si>
-  <si>
-    <t>pecinta.mamahmuda</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@pecinta.mamahmuda</t>
-  </si>
-  <si>
-    <t>minta rekomendasi yang bau nya tidak mencolok dan tidak bikin mual, kak</t>
-  </si>
-  <si>
-    <t>user6921565658614</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@user6921565658614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aku sudah beli wanggi nya biasa aja </t>
-  </si>
-  <si>
-    <t>indraaditama111</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@indraaditama111</t>
-  </si>
-  <si>
-    <t>emang sewangi itu dominant</t>
-  </si>
-  <si>
-    <t>hawk230891</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@hawk230891</t>
-  </si>
-  <si>
-    <t>varian scentplus yang cocok buat outdoor apa ka</t>
-  </si>
-  <si>
-    <t>raskamoonfietra_</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@raskamoonfietra_</t>
-  </si>
-  <si>
-    <t>bubble nya kurang tebel jadi pecah botol nya</t>
-  </si>
-  <si>
-    <t>winwen23</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@winwen23</t>
-  </si>
-  <si>
-    <t>mahal banget mbak</t>
-  </si>
-  <si>
-    <t>danxdam</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@danxdam</t>
-  </si>
-  <si>
-    <t>wangi kalem yang mana ka</t>
-  </si>
-  <si>
-    <t>ayhie12</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ayhie12</t>
-  </si>
-  <si>
-    <t>tetap wangi DOMINANT yang jadi andala aku, kayak ada manis manis nya gitu</t>
-  </si>
-  <si>
-    <t>link.010</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@link.010</t>
-  </si>
-  <si>
-    <t>parfum scentplus yang cocok buat anak sekolah apa kak</t>
-  </si>
-  <si>
-    <t>mukliskecipungkup</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@mukliskecipungkup</t>
-  </si>
-  <si>
-    <t>clarkkentpaat</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@clarkkentpaat</t>
-  </si>
-  <si>
-    <t>ga sampai satu jam wangi nya udah ilang</t>
-  </si>
-  <si>
-    <t>kaitam86</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kaitam86</t>
-  </si>
-  <si>
-    <t>saran aroma vanila buat anak sekolah kak</t>
-  </si>
-  <si>
-    <t>adiyatmanr</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@adiyatmanr</t>
-  </si>
-  <si>
-    <t>azwardi2</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@azwardi2</t>
-  </si>
-  <si>
-    <t>entahseiapakamu</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@entahseiapakamu</t>
-  </si>
-  <si>
-    <t>emang bener sih dominant ini bikin pasangan nyaman terus</t>
-  </si>
-  <si>
-    <t>bungtama10</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@bungtama10</t>
-  </si>
-  <si>
-    <t>achongboombers</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@achongboombers</t>
-  </si>
-  <si>
-    <t>dominant cocok buat sekolah gak kak</t>
-  </si>
-  <si>
-    <t>inoy_tt</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@inoy_tt</t>
-  </si>
-  <si>
-    <t>kotak pengiriman nya di ganti dong kak tipes banget kotak nya</t>
-  </si>
-  <si>
-    <t>ham_adjza19</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ham_adjza19</t>
-  </si>
-  <si>
-    <t>saran yang wangi kaya abis mandi buat anak sekolah dong kak</t>
-  </si>
-  <si>
-    <t>fajarshodiqqq</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@fajarshodiqqq</t>
-  </si>
-  <si>
-    <t>yang seratus mili berapa harga nya ka</t>
-  </si>
-  <si>
-    <t>arifcleaner7</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@arifcleaner7</t>
-  </si>
-  <si>
-    <t>yang pasti nya pakai dominant bikin pasangan makin nyaman aku udah buktiin</t>
-  </si>
-  <si>
-    <t>bhontot882</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@bhontot882</t>
-  </si>
-  <si>
-    <t>uuwooeeyyy</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@uuwooeeyyy</t>
-  </si>
-  <si>
-    <t>beli di sini wangi nya gak enak kaya baygon</t>
-  </si>
-  <si>
-    <t>user30879131041876</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@user30879131041876</t>
-  </si>
-  <si>
-    <t>rianariyanto23</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@rianariyanto23</t>
-  </si>
-  <si>
-    <t>udah gak ke hitung udah beli berapa kali, tapi belum dapet bonusan nih dari admin</t>
-  </si>
-  <si>
-    <t>acong2405</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@acong2405</t>
-  </si>
-  <si>
-    <t>wangi nya emang enak banget sih</t>
-  </si>
-  <si>
-    <t>tania.phan</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@tania.phan</t>
-  </si>
-  <si>
-    <t>zakheusbnri25</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@zakheusbnri25</t>
-  </si>
-  <si>
-    <t>ermust10</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ermust10</t>
-  </si>
-  <si>
-    <t>user5957386993834</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@user5957386993834</t>
-  </si>
-  <si>
-    <t>renoalfaqihh</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@renoalfaqihh</t>
-  </si>
-  <si>
-    <t>putra29932</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@putra29932</t>
-  </si>
-  <si>
-    <t>wangi nya gak tahan lama aku kecewa gak sesuai iklan</t>
-  </si>
-  <si>
-    <t>_.ryuukii._</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@_.ryuukii._</t>
-  </si>
-  <si>
-    <t>dominant effect paling bikin nyaman dan senang</t>
-  </si>
-  <si>
-    <t>indrajonedy</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@indrajonedy</t>
-  </si>
-  <si>
-    <t>aku pakai dua dua nya itu emang sewangi dan seenak itu</t>
-  </si>
-  <si>
-    <t>imam5717</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@imam5717</t>
-  </si>
-  <si>
-    <t>captain_rabbit8</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@captain_rabbit8</t>
-  </si>
-  <si>
-    <t>side the dominant bagus tuh nama nya</t>
-  </si>
-  <si>
-    <t>ghejho</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ghejho</t>
-  </si>
-  <si>
-    <t>rastamwww</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@rastamwww</t>
-  </si>
-  <si>
-    <t>desisetyawan116</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@desisetyawan116</t>
-  </si>
-  <si>
-    <t>zaki_17xxxxx</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@zaki_17xxxxx</t>
-  </si>
-  <si>
-    <t>irwandhwis04</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@irwandhwis04</t>
-  </si>
-  <si>
-    <t>dilzzstay</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dilzzstay</t>
-  </si>
-  <si>
-    <t>kak kalo yang buat outdor lebih cocok yang mana</t>
-  </si>
-  <si>
-    <t>winata_54321</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@winata_54321</t>
-  </si>
-  <si>
-    <t>sudah seminggu paket hijau aku belum sampai ini bos lama banget asli</t>
-  </si>
-  <si>
-    <t>xiaoyanasli</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@xiaoyanasli</t>
-  </si>
-  <si>
-    <t>Buset ini Admin Scentplus Aktif Banget Bales komen emang cocok jadi parfum lokal nomer 1</t>
-  </si>
-  <si>
-    <t>ostlegion</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ostlegion</t>
-  </si>
-  <si>
-    <t>mau nanya ka ini asli scentplus ga ka?</t>
-  </si>
-  <si>
-    <t>farezzzztuuu</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@farezzzztuuu</t>
-  </si>
-  <si>
-    <t>parah sudah lima hari menunggu kurir terus</t>
-  </si>
-  <si>
-    <t>dutaepik61</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dutaepik61</t>
-  </si>
-  <si>
-    <t>renufa</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@renufa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudah pesen dari satu minggu pesen belum datang </t>
-  </si>
-  <si>
-    <t>ikhsanbukanintapayong</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ikhsanbukanintapayong</t>
-  </si>
-  <si>
-    <t>baru saya beli ternyata palsu padahal satu itu lima puluh ribu</t>
-  </si>
-  <si>
-    <t>rynputra14</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@rynputra14</t>
-  </si>
-  <si>
-    <t>luxzkyyy_ft_wannz</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@luxzkyyy_ft_wannz</t>
-  </si>
-  <si>
-    <t>aku beli side effect dapet yang palsu mulu gimana nih kak</t>
-  </si>
-  <si>
-    <t>retnowijaya.pras2</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@retnowijaya.pras2</t>
-  </si>
-  <si>
-    <t>ddwith_</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ddwith_</t>
-  </si>
-  <si>
-    <t>buat kodangan apa ka</t>
-  </si>
-  <si>
-    <t>_21mikolassaputra</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@_21mikolassaputra</t>
-  </si>
-  <si>
-    <t>untuk pengiriman dari cirebon ke riau berapa lama ka</t>
-  </si>
-  <si>
-    <t>anakwayank92</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@anakwayank92</t>
-  </si>
-  <si>
-    <t>aer doang wangi nya tidak sampai tiga menit hilang</t>
-  </si>
-  <si>
-    <t>kh01ru1_</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kh01ru1_</t>
-  </si>
-  <si>
-    <t>side effect wangi nya bikin kangen</t>
-  </si>
-  <si>
-    <t>viscountmoba</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@viscountmoba</t>
-  </si>
-  <si>
-    <t>abang_wahyudin</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@abang_wahyudin</t>
-  </si>
-  <si>
-    <t>inisiapa183</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@inisiapa183</t>
-  </si>
-  <si>
-    <t>Parfum murah pasti tidak tahan lama</t>
-  </si>
-  <si>
-    <t>rarieuttv</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@rarieuttv</t>
-  </si>
-  <si>
-    <t>dodik2105</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dodik2105</t>
-  </si>
-  <si>
-    <t>lama banget seminggu belum di kirim</t>
-  </si>
-  <si>
-    <t>dark.postman</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dark.postman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heran sama yang ketipu  padahal tinggal beli di toko scantplus official </t>
-  </si>
-  <si>
-    <t>el_mnpo10</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@el_mnpo10</t>
-  </si>
-  <si>
-    <t>emang dari dulu aku suka sama nih Scentplus apalagi yang varian Side Effect wangi nya tidak mengecewakan emang parfum nomor 1</t>
-  </si>
-  <si>
-    <t>gw_cium_nih_bibirnya</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@gw_cium_nih_bibirnya</t>
-  </si>
-  <si>
-    <t>iklan pembohong yang bikin cewe nempel ke cowok itu bukan parfum, tapi duit dari harta warisan cowok</t>
-  </si>
-  <si>
-    <t>ahmadali_ibrahim16</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ahmadali_ibrahim16</t>
-  </si>
-  <si>
-    <t>tetap pemenang nya yang pro player dominant wangi nya lembut banget</t>
-  </si>
-  <si>
-    <t>anwr_yxy</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@anwr_yxy</t>
-  </si>
-  <si>
-    <t>tidak tahan lama</t>
-  </si>
-  <si>
-    <t>giantid</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@giantid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tidak lagi lagi beli tidak tau lagi mana yang asli dan mana yang palsu </t>
-  </si>
-  <si>
-    <t>kevinarisandi2</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@kevinarisandi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aku pakai yang dominant emang bener wangi banget </t>
-  </si>
-  <si>
-    <t>dendasuryapurnama</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@dendasuryapurnama</t>
-  </si>
-  <si>
-    <t>side effect sama dominant sudah coba emang top banget wangi nya</t>
-  </si>
-  <si>
-    <t>_netkidss</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@_netkidss</t>
-  </si>
-  <si>
-    <t>kak kalo beli langsung di tempat nya Cirebon bisa ga ka</t>
-  </si>
-  <si>
-    <t>ononihaa_</t>
-  </si>
-  <si>
-    <t>https://www.tiktok.com/@ononihaa_</t>
-  </si>
-  <si>
-    <t>toko apaan kaya gini ongkir lebih mahal dari pada harga parfum nya, aneh banget</t>
-  </si>
-  <si>
-    <t>mantap wangi nya scentplus</t>
-  </si>
-  <si>
-    <t>Botol parfum nya keras di pencet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saya suka banget wangi nya yang dominant </t>
-  </si>
-  <si>
-    <t>ketagihan banget sama aroma nya</t>
-  </si>
-  <si>
-    <t>dominant emang ga ada lawan wangi banget</t>
-  </si>
-  <si>
-    <t>mantap banget harum nya aku suka banget</t>
-  </si>
-  <si>
-    <t>dominant parfum terbaik aku</t>
-  </si>
-  <si>
-    <t>wangi parfum nya enak banget kak</t>
-  </si>
-  <si>
-    <t>pengemasan nya bagus dan aman banget</t>
-  </si>
-  <si>
-    <t>keren pengemasan nya</t>
-  </si>
-  <si>
-    <t>buat rapat apa ka</t>
-  </si>
-  <si>
-    <t>wangi aku suka dominant</t>
-  </si>
-  <si>
-    <t>mantap kak aku suka banget sama saran nya</t>
-  </si>
-  <si>
-    <t>wangi nya mantap banget aku suka</t>
-  </si>
-  <si>
-    <t>mau dominant yang botol nya paling keren</t>
-  </si>
-  <si>
-    <t>mantap aku suka wangi nya</t>
-  </si>
-  <si>
-    <t>saya mengakui aroma nya emang keren</t>
-  </si>
-  <si>
-    <t>saya nyesel beli parfum ini bau nya tidak enak</t>
-  </si>
-  <si>
-    <t>mantap harga sesuai Kualitas</t>
-  </si>
-  <si>
-    <t>cocok banget buat kasih kado ke suami</t>
-  </si>
-  <si>
-    <t>kotak nya keren banget</t>
-  </si>
-  <si>
-    <t>mau nanya ka parfum nya panas di leher ga ka</t>
-  </si>
-  <si>
-    <t>mau nanya ka parfum nya bisa buat sholat gak kak</t>
-  </si>
-  <si>
-    <t>parfum aku udah seminggu belum sampai ka lama banget pengiriman nya</t>
+    <t>Saya sangat kecewa, kotak pengirimannya terlalu tipis</t>
+  </si>
+  <si>
+    <t>Sudah seminggu paket hijau aku belum sampai sangat menyebalkan</t>
+  </si>
+  <si>
+    <t>Parfum aku sudah seminggu belum sampai, benar benar pengiriman nya terlalu lama</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-13809]dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,27 +957,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -986,6 +971,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1014,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,34 +1026,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,15 +1277,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C78" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" style="17" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -1291,7 +1297,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1309,14 +1315,14 @@
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>45344</v>
       </c>
     </row>
@@ -1325,14 +1331,14 @@
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>45344</v>
       </c>
     </row>
@@ -1341,14 +1347,14 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>45344</v>
       </c>
     </row>
@@ -1357,14 +1363,14 @@
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>243</v>
+      <c r="D5" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>45343</v>
       </c>
     </row>
@@ -1373,14 +1379,14 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>45343</v>
       </c>
     </row>
@@ -1389,14 +1395,14 @@
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>45343</v>
       </c>
     </row>
@@ -1405,222 +1411,222 @@
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
+      <c r="D8" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
+      <c r="D11" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>274</v>
+        <v>46</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>45343</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>275</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>45342</v>
       </c>
     </row>
@@ -1629,94 +1635,94 @@
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6">
+      <c r="D22" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>45342</v>
       </c>
     </row>
@@ -1725,2088 +1731,2088 @@
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>45342</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="6">
+        <v>105</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>73</v>
+        <v>108</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="6">
+        <v>113</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>155</v>
+        <v>116</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>276</v>
+        <v>118</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>295</v>
+        <v>123</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="6">
+        <v>125</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="6">
+        <v>128</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="6">
+        <v>130</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>45341</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>45340</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>45333</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>45333</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>296</v>
+        <v>144</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>45332</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>45332</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>45332</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>278</v>
+        <v>152</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>45331</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>279</v>
+        <v>154</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>45331</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>280</v>
+        <v>156</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>45331</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>281</v>
+        <v>154</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>45331</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>45294</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>45294</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>45294</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>282</v>
+        <v>171</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>45294</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <v>45294</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>283</v>
+        <v>176</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>45294</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>284</v>
+        <v>178</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>285</v>
+        <v>180</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>286</v>
+        <v>182</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>287</v>
+        <v>184</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="6">
+      <c r="F70" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="6">
+      <c r="F71" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>45293</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <v>45290</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="6">
+        <v>200</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="6">
+      <c r="F76" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>211</v>
+        <v>205</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>289</v>
+        <v>208</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="6">
+      <c r="F80" s="5">
         <v>45289</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>290</v>
+        <v>213</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>45288</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="6">
+      <c r="F82" s="5">
         <v>45288</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>45285</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>45285</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="6">
+      <c r="F85" s="5">
         <v>45285</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>291</v>
+        <v>227</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>292</v>
+        <v>158</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="6">
+      <c r="F87" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>293</v>
+        <v>229</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="6">
+      <c r="F89" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>294</v>
+        <v>234</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>249</v>
+        <v>241</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>252</v>
+        <v>244</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>45284</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>45283</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>45282</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>260</v>
+        <v>253</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <v>45282</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>45282</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>45281</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <v>45281</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E101" s="11"/>
-      <c r="F101" s="6">
+        <v>265</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="5">
         <v>45281</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="10"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="4"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="10"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="4"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="10"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="4"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="10"/>
+      <c r="C105" s="16"/>
       <c r="D105" s="4"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="10"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="4"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="6"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="4"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="7"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="12"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="4"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="7"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="10"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="4"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="6"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="12"/>
+      <c r="C112" s="16"/>
       <c r="D112" s="4"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="7"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="12"/>
+      <c r="C114" s="16"/>
       <c r="D114" s="4"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="6"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="12"/>
+      <c r="C115" s="16"/>
       <c r="D115" s="4"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="6"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="12"/>
+      <c r="C117" s="16"/>
       <c r="D117" s="4"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="10"/>
+      <c r="C118" s="16"/>
       <c r="D118" s="4"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="6"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="6"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="12"/>
+      <c r="C121" s="16"/>
       <c r="D121" s="4"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="5"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="12"/>
+      <c r="C122" s="16"/>
       <c r="D122" s="4"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="12"/>
+      <c r="C123" s="16"/>
       <c r="D123" s="4"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="6"/>
+      <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="12"/>
+      <c r="C124" s="16"/>
       <c r="D124" s="4"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="12"/>
+      <c r="C125" s="16"/>
       <c r="D125" s="4"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="12"/>
+      <c r="C126" s="16"/>
       <c r="D126" s="4"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="6"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="12"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="4"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="12"/>
+      <c r="C128" s="16"/>
       <c r="D128" s="4"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="12"/>
+      <c r="C129" s="16"/>
       <c r="D129" s="4"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="6"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="6"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="9"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="6"/>
+      <c r="F131" s="5"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="12"/>
+      <c r="C132" s="16"/>
       <c r="D132" s="4"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="12"/>
+      <c r="C133" s="16"/>
       <c r="D133" s="4"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="12"/>
+      <c r="C134" s="16"/>
       <c r="D134" s="4"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="5"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="12"/>
+      <c r="C135" s="16"/>
       <c r="D135" s="4"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="5"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="12"/>
+      <c r="C136" s="16"/>
       <c r="D136" s="4"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="12"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="4"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="12"/>
+      <c r="C138" s="16"/>
       <c r="D138" s="4"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="12"/>
+      <c r="C140" s="16"/>
       <c r="D140" s="4"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="12"/>
+      <c r="C141" s="16"/>
       <c r="D141" s="4"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="12"/>
+      <c r="C142" s="16"/>
       <c r="D142" s="4"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="9"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="5"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="12"/>
+      <c r="C144" s="16"/>
       <c r="D144" s="4"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="12"/>
+      <c r="C145" s="16"/>
       <c r="D145" s="4"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="5"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="12"/>
+      <c r="C146" s="16"/>
       <c r="D146" s="4"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="5"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="12"/>
+      <c r="C147" s="16"/>
       <c r="D147" s="4"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="5"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="7"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="12"/>
+      <c r="C149" s="16"/>
       <c r="D149" s="4"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="12"/>
+      <c r="C150" s="16"/>
       <c r="D150" s="4"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="12"/>
+      <c r="C151" s="16"/>
       <c r="D151" s="4"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="5"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="8"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="7"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="7"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="6"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="5"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="12"/>
+      <c r="C154" s="16"/>
       <c r="D154" s="4"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="6"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="5"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="12"/>
+      <c r="C156" s="16"/>
       <c r="D156" s="4"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="12"/>
+      <c r="C157" s="16"/>
       <c r="D157" s="4"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="5"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="12"/>
+      <c r="C158" s="16"/>
       <c r="D158" s="4"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="13"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="9"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="12"/>
+      <c r="C160" s="16"/>
       <c r="D160" s="4"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="12"/>
+      <c r="C161" s="16"/>
       <c r="D161" s="4"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="12"/>
+      <c r="C162" s="16"/>
       <c r="D162" s="4"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="12"/>
+      <c r="C163" s="16"/>
       <c r="D163" s="4"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="12"/>
+      <c r="C164" s="16"/>
       <c r="D164" s="4"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="12"/>
+      <c r="C165" s="16"/>
       <c r="D165" s="4"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="12"/>
+      <c r="C166" s="16"/>
       <c r="D166" s="4"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" ht="16.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="12"/>
+      <c r="C167" s="16"/>
       <c r="D167" s="4"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="12"/>
+      <c r="C168" s="16"/>
       <c r="D168" s="4"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="12"/>
+      <c r="C169" s="16"/>
       <c r="D169" s="4"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="12"/>
+      <c r="C170" s="16"/>
       <c r="D170" s="4"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="12"/>
+      <c r="C171" s="16"/>
       <c r="D171" s="4"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="12"/>
+      <c r="C172" s="16"/>
       <c r="D172" s="4"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="12"/>
+      <c r="C173" s="16"/>
       <c r="D173" s="4"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="12"/>
+      <c r="C174" s="16"/>
       <c r="D174" s="4"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="13"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="12"/>
+      <c r="C176" s="16"/>
       <c r="D176" s="4"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="12"/>
+      <c r="C177" s="16"/>
       <c r="D177" s="4"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="12"/>
+      <c r="C178" s="16"/>
       <c r="D178" s="4"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="13"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="9"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="5"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="12"/>
+      <c r="C180" s="16"/>
       <c r="D180" s="4"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="12"/>
+      <c r="C181" s="16"/>
       <c r="D181" s="4"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="12"/>
+      <c r="C182" s="16"/>
       <c r="D182" s="4"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="13"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="9"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="13"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="9"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="12"/>
+      <c r="C185" s="16"/>
       <c r="D185" s="4"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="12"/>
+      <c r="C186" s="16"/>
       <c r="D186" s="4"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="12"/>
+      <c r="C187" s="16"/>
       <c r="D187" s="4"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="12"/>
+      <c r="C188" s="16"/>
       <c r="D188" s="4"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="12"/>
+      <c r="C189" s="16"/>
       <c r="D189" s="4"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="12"/>
+      <c r="C190" s="16"/>
       <c r="D190" s="4"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="12"/>
+      <c r="C191" s="16"/>
       <c r="D191" s="4"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="12"/>
+      <c r="C192" s="16"/>
       <c r="D192" s="4"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="12"/>
+      <c r="C193" s="16"/>
       <c r="D193" s="4"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="13"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="9"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="12"/>
+      <c r="C195" s="16"/>
       <c r="D195" s="4"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="12"/>
+      <c r="C196" s="16"/>
       <c r="D196" s="4"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="13"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="9"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="12"/>
+      <c r="C198" s="16"/>
       <c r="D198" s="4"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="12"/>
+      <c r="C199" s="16"/>
       <c r="D199" s="4"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="12"/>
+      <c r="C200" s="16"/>
       <c r="D200" s="4"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="6"/>
+      <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="12"/>
+      <c r="C201" s="16"/>
       <c r="D201" s="4"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="6"/>
+      <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="12"/>
+      <c r="C202" s="16"/>
       <c r="D202" s="4"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="6"/>
+      <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="12"/>
+      <c r="C203" s="16"/>
       <c r="D203" s="4"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="6"/>
+      <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="12"/>
+      <c r="C204" s="16"/>
       <c r="D204" s="4"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="6"/>
+      <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="12"/>
+      <c r="C205" s="16"/>
       <c r="D205" s="4"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="6"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="13"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="9"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="6"/>
+      <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="12"/>
+      <c r="C207" s="16"/>
       <c r="D207" s="4"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="6"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="12"/>
+      <c r="C208" s="16"/>
       <c r="D208" s="4"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="6"/>
+      <c r="F208" s="5"/>
     </row>
     <row r="209" spans="1:6" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="12"/>
+      <c r="C209" s="16"/>
       <c r="D209" s="4"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="6"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="12"/>
+      <c r="C210" s="16"/>
       <c r="D210" s="4"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="6"/>
+      <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="12"/>
+      <c r="C211" s="16"/>
       <c r="D211" s="4"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="6"/>
+      <c r="F211" s="5"/>
     </row>
     <row r="212" spans="1:6" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="12"/>
+      <c r="C212" s="16"/>
       <c r="D212" s="4"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="6"/>
+      <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="7"/>
+      <c r="C213" s="16"/>
+      <c r="D213" s="6"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="6"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="12"/>
+      <c r="C214" s="16"/>
       <c r="D214" s="4"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="6"/>
+      <c r="F214" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
